--- a/vaq ETABS/Paaraaaaaaaaaaaaaaaaa FINAL 2DA PARTE/VIGAS.xlsx
+++ b/vaq ETABS/Paaraaaaaaaaaaaaaaaaa FINAL 2DA PARTE/VIGAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\PARA FINAL 2DA PARTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\Paaraaaaaaaaaaaaaaaaa FINAL 2DA PARTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06100EB4-E471-4AFB-83A7-F2592A8DE692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A48506-DC66-461C-8E62-78696AB21CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B524CB0F-A38C-45A6-B572-7C2DEC42605A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>Calculo de Acero Minimo</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Diseño de refuerzo de vigas del eje C del edificio y  la propuesta de Refuerzo</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -208,17 +214,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAE9A92-280C-43EC-8B0A-2D64B9766640}">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:K21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,39 +739,39 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="7">
-        <v>11.12</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="1">
-        <v>4.38</v>
+        <v>9</v>
       </c>
       <c r="J4" s="7">
-        <v>11.13</v>
+        <v>27</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="6">
-        <v>6.54</v>
-      </c>
-      <c r="H5" s="6"/>
+      <c r="G5" s="8">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="2">
-        <v>6.89</v>
-      </c>
-      <c r="J5" s="6">
-        <v>6.55</v>
-      </c>
-      <c r="K5" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="8">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -783,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -800,8 +806,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>F8-6</f>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -814,22 +819,25 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -847,24 +855,23 @@
       </c>
       <c r="C11">
         <f>14/C6*C7*C8</f>
-        <v>2.416666666666667</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <f>IF(G11=3,0.71,IF(G11=4,1.267,IF(G11=5,1.98,IF(G11=6,2.85,3.879))))</f>
-        <v>1.98</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11">
         <f>H11*I11</f>
-        <v>3.96</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -875,18 +882,18 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <f>IF(G12="","",IF(G12=3,0.71,IF(G12=4,1.267,IF(G12=5,1.98,IF(G12=6,2.85,3.879)))))</f>
-        <v>1.2669999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f>IF(G12="","",H12*I12)</f>
-        <v>1.2669999999999999</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
@@ -906,16 +913,16 @@
       <c r="I13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <f>J11+IF(J12="",0,J12)</f>
-        <v>5.2270000000000003</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="K13" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="5">
         <f>C15</f>
-        <v>3.6729000000000003</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -924,35 +931,35 @@
       </c>
       <c r="C14">
         <f>MAX(G4,J4)*0.33</f>
-        <v>3.6729000000000003</v>
+        <v>8.91</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8">
+      <c r="B15" s="9"/>
+      <c r="C15" s="5">
         <f>MAX(C11:C14)</f>
-        <v>3.6729000000000003</v>
+        <v>8.91</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
@@ -965,24 +972,23 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="G17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <f>IF(G17=3,0.71,IF(G17=4,1.267,IF(G17=5,1.98,IF(G17=6,2.85,3.879))))</f>
-        <v>2.85</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
         <f>H17*I17</f>
-        <v>5.7</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="K17" t="s">
         <v>11</v>
@@ -994,24 +1000,23 @@
       </c>
       <c r="C18">
         <f>14/C6*C7*C8</f>
-        <v>2.416666666666667</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <f>IF(G18="","",IF(G18=3,0.71,IF(G18=4,1.267,IF(G18=5,1.98,IF(G18=6,2.85,3.879)))))</f>
-        <v>1.2669999999999999</v>
+        <v>3.879</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
         <f>IF(G18="","",H18*I18)</f>
-        <v>1.2669999999999999</v>
+        <v>3.879</v>
       </c>
       <c r="K18" t="s">
         <v>11</v>
@@ -1024,16 +1029,16 @@
       <c r="I19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="6">
         <f>J17+IF(J18="",0,J18)</f>
-        <v>6.9670000000000005</v>
+        <v>13.998999999999999</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="5">
         <f>C23</f>
-        <v>5.5650000000000004</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1054,18 +1059,18 @@
       </c>
       <c r="C21">
         <f>MAX(G4,J4)*0.5</f>
-        <v>5.5650000000000004</v>
+        <v>13.5</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1073,27 +1078,27 @@
       </c>
       <c r="C22">
         <f>I5*0.5</f>
-        <v>3.4449999999999998</v>
+        <v>6.5</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8">
+      <c r="B23" s="9"/>
+      <c r="C23" s="5">
         <f>MAX(C18:C22)</f>
-        <v>5.5650000000000004</v>
+        <v>13.5</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7">
         <f>IF(G4-J13&lt;0,"",G4-J13)</f>
-        <v>5.8929999999999989</v>
+        <v>15.88</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="1" t="str">
@@ -1102,7 +1107,7 @@
       </c>
       <c r="J23" s="7">
         <f>IF(J4-J13&lt;0,"",J4-J13)</f>
-        <v>5.9030000000000005</v>
+        <v>16.880000000000003</v>
       </c>
       <c r="K23" s="7"/>
     </row>
@@ -1110,20 +1115,19 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="G24" s="5" t="str">
-        <f>IF(G5-J19&lt;0,"",G5-J19)</f>
-        <v/>
-      </c>
-      <c r="H24" s="5"/>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8"/>
       <c r="I24" s="2" t="str">
         <f>IF(I5-J19&lt;0,"",I5-J19)</f>
         <v/>
       </c>
-      <c r="J24" s="6" t="str">
+      <c r="J24" s="8">
         <f>IF(J5-J19&lt;0,"",J5-J19)</f>
-        <v/>
-      </c>
-      <c r="K24" s="6"/>
+        <v>1.0010000000000012</v>
+      </c>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
@@ -1136,17 +1140,17 @@
       <c r="D26" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
         <v>22</v>
@@ -1160,18 +1164,17 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <f>IF(G30=3,0.71,IF(G30=4,1.267,IF(G30=5,1.98,IF(G30=6,2.85,3.879))))</f>
-        <v>1.98</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <f>H30*I30</f>
-        <v>3.96</v>
+        <v>15.18</v>
       </c>
       <c r="K30" t="s">
         <v>11</v>
@@ -1200,26 +1203,26 @@
       <c r="I32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="6">
         <f>J30+IF(J31="",0,J31)</f>
-        <v>5.9399999999999995</v>
+        <v>17.16</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="5">
         <f>MAX(G23:K23)</f>
-        <v>5.9030000000000005</v>
+        <v>16.880000000000003</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
@@ -1237,18 +1240,18 @@
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36">
         <f>IF(G36=3,0.71,IF(G36=4,1.267,IF(G36=5,1.98,IF(G36=6,2.85,3.879))))</f>
-        <v>0.71</v>
+        <v>1.2669999999999999</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
         <f>H36*I36</f>
-        <v>0.71</v>
+        <v>1.2669999999999999</v>
       </c>
       <c r="K36" t="s">
         <v>11</v>
@@ -1274,26 +1277,21 @@
       <c r="I38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="6">
         <f>J36+IF(J37="",0,J37)</f>
-        <v>0.71</v>
+        <v>1.2669999999999999</v>
       </c>
       <c r="K38" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="5">
         <f>MAX(G24:K24)</f>
-        <v>0</v>
+        <v>1.0010000000000012</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G2:K2"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="A15:B15"/>
@@ -1307,13 +1305,18 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B20" xr:uid="{F1FFECEE-E815-4FE2-AE6A-F07CA5EF4728}">
       <formula1>"No3,No4,No5,No6,No7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G18 G11:G12 G36:G37 G30:G31" xr:uid="{0F5ED4AB-D1EE-4065-98A9-1CEA56819254}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G36:G37 G31" xr:uid="{0F5ED4AB-D1EE-4065-98A9-1CEA56819254}">
       <formula1>"3,4,5,6,7"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1334,15 +1337,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
